--- a/Test Results/Polyphony_Capacity_Tests/polyphony_cpu_usage.xlsx
+++ b/Test Results/Polyphony_Capacity_Tests/polyphony_cpu_usage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houdi\Documents\GitHub\Teensy-Synth-Project\Test Results\Polyphony_Capacity_Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA69AF2-AA47-4731-BBB1-BC8F832AFC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DAF3B3-5106-4A38-9167-EE6868B0826A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="23040" windowHeight="12120" xr2:uid="{AFC9BDFE-86DB-4B90-8487-8D44D1DDF079}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AFC9BDFE-86DB-4B90-8487-8D44D1DDF079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t xml:space="preserve">Test # </t>
   </si>
@@ -51,6 +51,33 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>Waveform</t>
+  </si>
+  <si>
+    <t>Sine</t>
+  </si>
+  <si>
+    <t>Starts to clip (due to bad audio shield settings)</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Sawtooth</t>
+  </si>
+  <si>
+    <t>Total CPU Usage (%)</t>
   </si>
 </sst>
 </file>
@@ -422,21 +449,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC462D0-F160-427D-B5AC-8A4708AB5277}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,13 +472,640 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1.19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>83.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1.32</v>
+      </c>
+      <c r="G3">
+        <v>83.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1.41</v>
+      </c>
+      <c r="G4">
+        <v>83.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1.59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>84.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1.62</v>
+      </c>
+      <c r="G6">
+        <v>84.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1.7</v>
+      </c>
+      <c r="G7">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1.79</v>
+      </c>
+      <c r="G8">
+        <v>84.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1.87</v>
+      </c>
+      <c r="G9">
+        <v>84.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1.96</v>
+      </c>
+      <c r="G10">
+        <v>84.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.82</v>
+      </c>
+      <c r="G11">
+        <v>82.97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.92</v>
+      </c>
+      <c r="G12">
+        <v>83.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1.01</v>
+      </c>
+      <c r="G13">
+        <v>83.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G14">
+        <v>83.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1.29</v>
+      </c>
+      <c r="G15">
+        <v>83.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>1.32</v>
+      </c>
+      <c r="G16">
+        <v>83.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1.41</v>
+      </c>
+      <c r="G17">
+        <v>83.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>1.52</v>
+      </c>
+      <c r="G18">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1.6</v>
+      </c>
+      <c r="G19">
+        <v>84.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1.08</v>
+      </c>
+      <c r="G20">
+        <v>83.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G21">
+        <v>83.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>1.23</v>
+      </c>
+      <c r="G22">
+        <v>83.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>1.32</v>
+      </c>
+      <c r="G23">
+        <v>83.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>1.46</v>
+      </c>
+      <c r="G24">
+        <v>83.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>1.51</v>
+      </c>
+      <c r="G25">
+        <v>84.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>1.6</v>
+      </c>
+      <c r="G26">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>1.72</v>
+      </c>
+      <c r="G27">
+        <v>84.53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>1.82</v>
+      </c>
+      <c r="G28">
+        <v>84.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>0.67</v>
+      </c>
+      <c r="G29">
+        <v>82.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>0.8</v>
+      </c>
+      <c r="G30">
+        <v>82.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>0.9</v>
+      </c>
+      <c r="G31">
+        <v>82.93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>0.97</v>
+      </c>
+      <c r="G32">
+        <v>83.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>1.05</v>
+      </c>
+      <c r="G33">
+        <v>83.27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G34">
+        <v>83.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>1.23</v>
+      </c>
+      <c r="G35">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>1.32</v>
+      </c>
+      <c r="G36">
+        <v>83.88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>1.41</v>
+      </c>
+      <c r="G37">
+        <v>84.05</v>
       </c>
     </row>
   </sheetData>

--- a/Test Results/Polyphony_Capacity_Tests/polyphony_cpu_usage.xlsx
+++ b/Test Results/Polyphony_Capacity_Tests/polyphony_cpu_usage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houdi\Documents\GitHub\Teensy-Synth-Project\Test Results\Polyphony_Capacity_Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DAF3B3-5106-4A38-9167-EE6868B0826A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2B9EAF-9B06-4F38-95B2-FE3C1883FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AFC9BDFE-86DB-4B90-8487-8D44D1DDF079}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AFC9BDFE-86DB-4B90-8487-8D44D1DDF079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,6 +130,5131 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Sine</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Wave vs CPU Usage</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sine Waves</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>83.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88B9-4BBD-AD1B-26A316BDD386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1177683536"/>
+        <c:axId val="1177676816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1177683536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177676816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1177676816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177683536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Square</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Wave vs. CPU Usage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Square</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$11:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>82.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C390-4E45-9667-B65AF522F869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1341241776"/>
+        <c:axId val="1341246096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1341241776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341246096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1341246096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341241776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Triangle Wave vs. CPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Usage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26747900262467189"/>
+          <c:y val="3.692805501147934E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Triangle</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$20:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>83.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-761E-4574-BD71-8C686012DD59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1341228816"/>
+        <c:axId val="1341227856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1341228816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341227856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1341227856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341228816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sawtooth Wave vs. CPU Usage</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$29:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>82.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB3A-4507-BC96-0F869529B7E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1341212496"/>
+        <c:axId val="1341217296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1341212496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341217296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1341217296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341212496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sine</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>83.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C4C-42C5-8C17-5514A42C9823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Square</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$11:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>82.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C4C-42C5-8C17-5514A42C9823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Triangle</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$20:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>83.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C4C-42C5-8C17-5514A42C9823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Sawtooth</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$29:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>82.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5C4C-42C5-8C17-5514A42C9823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1341263856"/>
+        <c:axId val="1341264336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1341263856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341264336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1341264336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341263856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E9136C-6331-0CAC-07D4-43728C547444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA7AC4B-7F35-902C-0710-131C7BB3F078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4BB01C-6581-FD4B-764C-9AD594EEA206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3D73D8-71B8-2B33-0346-EF313B87F7EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>270163</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>124692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>574963</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA5BF60-4653-8EB2-1633-11259AAEB3B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,8 +5576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC462D0-F160-427D-B5AC-8A4708AB5277}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,5 +6235,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>